--- a/Movies.xlsx
+++ b/Movies.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniil/Documents/Github/daniilscheifes.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A66BCC5C-26C9-AB41-8EC5-C0BC3BBFDB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05595BD9-3515-A24C-833E-EE8007ED6DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="620" windowWidth="26740" windowHeight="14180" xr2:uid="{F44AB2B1-907C-DD4F-8F59-B2CEF77F809B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Movies">Sheet1!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>Movie</t>
   </si>
@@ -48,9 +52,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Synecdoche, New Yrok</t>
-  </si>
-  <si>
     <t>Runtime</t>
   </si>
   <si>
@@ -61,13 +62,118 @@
   </si>
   <si>
     <t>Post modern, Death</t>
+  </si>
+  <si>
+    <t>Synecdoche, New York</t>
+  </si>
+  <si>
+    <t>2h 05</t>
+  </si>
+  <si>
+    <t>2h 06</t>
+  </si>
+  <si>
+    <t>2h 07</t>
+  </si>
+  <si>
+    <t>2h 08</t>
+  </si>
+  <si>
+    <t>2h 09</t>
+  </si>
+  <si>
+    <t>2h 10</t>
+  </si>
+  <si>
+    <t>2h 11</t>
+  </si>
+  <si>
+    <t>2h 12</t>
+  </si>
+  <si>
+    <t>2h 13</t>
+  </si>
+  <si>
+    <t>2h 14</t>
+  </si>
+  <si>
+    <t>2h 15</t>
+  </si>
+  <si>
+    <t>2h 16</t>
+  </si>
+  <si>
+    <t>2h 17</t>
+  </si>
+  <si>
+    <t>2h 18</t>
+  </si>
+  <si>
+    <t>2h 19</t>
+  </si>
+  <si>
+    <t>2h 20</t>
+  </si>
+  <si>
+    <t>2h 21</t>
+  </si>
+  <si>
+    <t>2h 22</t>
+  </si>
+  <si>
+    <t>2h 23</t>
+  </si>
+  <si>
+    <t>2h 24</t>
+  </si>
+  <si>
+    <t>2h 25</t>
+  </si>
+  <si>
+    <t>2h 26</t>
+  </si>
+  <si>
+    <t>2h 27</t>
+  </si>
+  <si>
+    <t>2h 28</t>
+  </si>
+  <si>
+    <t>2h 29</t>
+  </si>
+  <si>
+    <t>2h 30</t>
+  </si>
+  <si>
+    <t>2h 31</t>
+  </si>
+  <si>
+    <t>2h 32</t>
+  </si>
+  <si>
+    <t>2h 33</t>
+  </si>
+  <si>
+    <t>2h 34</t>
+  </si>
+  <si>
+    <t>2h 35</t>
+  </si>
+  <si>
+    <t>2h 36</t>
+  </si>
+  <si>
+    <t>2h 37</t>
+  </si>
+  <si>
+    <t>2h 38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,13 +189,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4BAC5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,9 +231,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -115,6 +251,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4BAC5"/>
+      <color rgb="FFFF2D55"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,56 +565,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8EE424-5384-9342-B030-43A11F612BA8}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2008</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2008</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="6">
+        <v>2009</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>2011</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>2012</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <v>2027</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>2028</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>2029</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
+        <v>2030</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <v>2031</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="6">
+        <v>2032</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="6">
+        <v>2033</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
+        <v>2034</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <v>2036</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
+        <v>2037</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>2038</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="6">
+        <v>2039</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="6">
+        <v>2040</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="6">
+        <v>2041</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="6">
+        <v>2042</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0F6E2873-EFAE-9D43-B560-00D467D990D9}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Synecdoche, New Yrok" xr:uid="{0F6E2873-EFAE-9D43-B560-00D467D990D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
